--- a/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库优化.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库优化.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -2280,7 +2280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6373" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6390" uniqueCount="524">
   <si>
     <t>用例编号</t>
   </si>
@@ -4623,6 +4623,10 @@
  铺层库Excel文件创建中...
  铺层库Excel文件创建完毕：C:\\Users\Administrator\Desktop\aro\aro2\Ply_562.xlsx
  铺层库Excel文件创建完毕：C:\\Users\Administrator\Desktop\aro\aro2\562.xlsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5175,18 +5179,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="21" max="21" width="14.875" customWidth="1"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5283,11 +5288,14 @@
       <c r="AF1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>269</v>
       </c>
@@ -5382,9 +5390,10 @@
       <c r="AF2" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="13"/>
@@ -5417,9 +5426,10 @@
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="26"/>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5452,9 +5462,10 @@
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="26"/>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -5487,13 +5498,35 @@
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="26"/>
-      <c r="AG5" s="4"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="AG6" s="3"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="AG7" s="3"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="AG9" s="3"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="AG12" s="3"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z5 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA6:AA1048576 AA1">
@@ -5510,10 +5543,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -5529,11 +5562,12 @@
     <col min="27" max="27" width="6" style="4" customWidth="1"/>
     <col min="28" max="31" width="6" style="5" customWidth="1"/>
     <col min="32" max="32" width="7.625" style="27" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5630,11 +5664,14 @@
       <c r="AF1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>324</v>
       </c>
@@ -5729,9 +5766,10 @@
       <c r="AF2" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>325</v>
       </c>
@@ -5828,9 +5866,10 @@
       <c r="AF3" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>326</v>
       </c>
@@ -5927,9 +5966,10 @@
       <c r="AF4" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>327</v>
       </c>
@@ -6026,9 +6066,10 @@
       <c r="AF5" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>328</v>
       </c>
@@ -6125,9 +6166,10 @@
       <c r="AF6" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>329</v>
       </c>
@@ -6224,9 +6266,10 @@
       <c r="AF7" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>330</v>
       </c>
@@ -6323,9 +6366,10 @@
       <c r="AF8" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>331</v>
       </c>
@@ -6422,9 +6466,10 @@
       <c r="AF9" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>332</v>
       </c>
@@ -6521,9 +6566,10 @@
       <c r="AF10" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>333</v>
       </c>
@@ -6620,9 +6666,10 @@
       <c r="AF11" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>334</v>
       </c>
@@ -6719,9 +6766,10 @@
       <c r="AF12" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6755,8 +6803,9 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="27"/>
       <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6790,8 +6839,9 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="27"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6825,8 +6875,9 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="27"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6860,8 +6911,9 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="27"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6895,8 +6947,9 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="27"/>
       <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6930,8 +6983,9 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="27"/>
       <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6965,11 +7019,12 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="27"/>
       <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
@@ -6983,10 +7038,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -7002,11 +7057,12 @@
     <col min="27" max="27" width="6" style="4" customWidth="1"/>
     <col min="28" max="31" width="6" style="5" customWidth="1"/>
     <col min="32" max="32" width="7.625" style="27" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7103,11 +7159,14 @@
       <c r="AF1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>335</v>
       </c>
@@ -7202,9 +7261,10 @@
       <c r="AF2" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>336</v>
       </c>
@@ -7301,9 +7361,10 @@
       <c r="AF3" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>337</v>
       </c>
@@ -7400,9 +7461,10 @@
       <c r="AF4" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>338</v>
       </c>
@@ -7499,9 +7561,10 @@
       <c r="AF5" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>339</v>
       </c>
@@ -7598,9 +7661,10 @@
       <c r="AF6" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>340</v>
       </c>
@@ -7697,9 +7761,10 @@
       <c r="AF7" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>341</v>
       </c>
@@ -7796,9 +7861,10 @@
       <c r="AF8" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>342</v>
       </c>
@@ -7895,9 +7961,10 @@
       <c r="AF9" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>343</v>
       </c>
@@ -7994,9 +8061,10 @@
       <c r="AF10" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>344</v>
       </c>
@@ -8093,9 +8161,10 @@
       <c r="AF11" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>345</v>
       </c>
@@ -8192,9 +8261,10 @@
       <c r="AF12" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -8228,8 +8298,9 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="27"/>
       <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -8263,8 +8334,9 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="27"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -8298,8 +8370,9 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="27"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -8333,8 +8406,9 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="27"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8368,8 +8442,9 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="27"/>
       <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -8403,8 +8478,9 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="27"/>
       <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8438,12 +8514,13 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="27"/>
       <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
@@ -8457,10 +8534,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -8476,11 +8553,12 @@
     <col min="27" max="27" width="6" style="4" customWidth="1"/>
     <col min="28" max="31" width="6" style="5" customWidth="1"/>
     <col min="32" max="32" width="7.625" style="27" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8577,11 +8655,14 @@
       <c r="AF1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>346</v>
       </c>
@@ -8676,9 +8757,10 @@
       <c r="AF2" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>347</v>
       </c>
@@ -8775,9 +8857,10 @@
       <c r="AF3" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>348</v>
       </c>
@@ -8874,9 +8957,10 @@
       <c r="AF4" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>349</v>
       </c>
@@ -8973,9 +9057,10 @@
       <c r="AF5" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>350</v>
       </c>
@@ -9072,9 +9157,10 @@
       <c r="AF6" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>351</v>
       </c>
@@ -9171,9 +9257,10 @@
       <c r="AF7" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>352</v>
       </c>
@@ -9270,9 +9357,10 @@
       <c r="AF8" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>353</v>
       </c>
@@ -9369,9 +9457,10 @@
       <c r="AF9" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>354</v>
       </c>
@@ -9468,9 +9557,10 @@
       <c r="AF10" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>355</v>
       </c>
@@ -9567,9 +9657,10 @@
       <c r="AF11" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>356</v>
       </c>
@@ -9666,9 +9757,10 @@
       <c r="AF12" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -9702,8 +9794,9 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="27"/>
       <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -9737,8 +9830,9 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="27"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -9772,8 +9866,9 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="27"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -9807,8 +9902,9 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="27"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -9842,8 +9938,9 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="27"/>
       <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -9877,8 +9974,9 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="27"/>
       <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -9912,11 +10010,12 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="27"/>
       <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
@@ -9930,10 +10029,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -9949,11 +10048,12 @@
     <col min="27" max="27" width="6" style="4" customWidth="1"/>
     <col min="28" max="31" width="6" style="5" customWidth="1"/>
     <col min="32" max="32" width="7.625" style="27" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10050,11 +10150,14 @@
       <c r="AF1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>357</v>
       </c>
@@ -10149,9 +10252,10 @@
       <c r="AF2" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>358</v>
       </c>
@@ -10248,9 +10352,10 @@
       <c r="AF3" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>359</v>
       </c>
@@ -10347,9 +10452,10 @@
       <c r="AF4" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>360</v>
       </c>
@@ -10446,9 +10552,10 @@
       <c r="AF5" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>361</v>
       </c>
@@ -10545,9 +10652,10 @@
       <c r="AF6" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>362</v>
       </c>
@@ -10644,9 +10752,10 @@
       <c r="AF7" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>363</v>
       </c>
@@ -10743,9 +10852,10 @@
       <c r="AF8" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>364</v>
       </c>
@@ -10842,9 +10952,10 @@
       <c r="AF9" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>365</v>
       </c>
@@ -10941,9 +11052,10 @@
       <c r="AF10" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>366</v>
       </c>
@@ -11040,9 +11152,10 @@
       <c r="AF11" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>367</v>
       </c>
@@ -11139,9 +11252,10 @@
       <c r="AF12" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -11175,8 +11289,9 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="27"/>
       <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -11210,8 +11325,9 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="27"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -11245,8 +11361,9 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="27"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -11280,8 +11397,9 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="27"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -11315,8 +11433,9 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="27"/>
       <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -11350,8 +11469,9 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="27"/>
       <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -11385,11 +11505,12 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="27"/>
       <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
@@ -11403,10 +11524,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -11422,11 +11543,12 @@
     <col min="27" max="27" width="6" style="4" customWidth="1"/>
     <col min="28" max="31" width="6" style="5" customWidth="1"/>
     <col min="32" max="32" width="7.625" style="27" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11523,11 +11645,14 @@
       <c r="AF1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>368</v>
       </c>
@@ -11622,9 +11747,10 @@
       <c r="AF2" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>369</v>
       </c>
@@ -11721,9 +11847,10 @@
       <c r="AF3" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>370</v>
       </c>
@@ -11820,9 +11947,10 @@
       <c r="AF4" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>371</v>
       </c>
@@ -11919,9 +12047,10 @@
       <c r="AF5" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>372</v>
       </c>
@@ -12018,9 +12147,10 @@
       <c r="AF6" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>373</v>
       </c>
@@ -12117,9 +12247,10 @@
       <c r="AF7" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>374</v>
       </c>
@@ -12216,9 +12347,10 @@
       <c r="AF8" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>375</v>
       </c>
@@ -12315,9 +12447,10 @@
       <c r="AF9" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>376</v>
       </c>
@@ -12414,9 +12547,10 @@
       <c r="AF10" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>377</v>
       </c>
@@ -12513,9 +12647,10 @@
       <c r="AF11" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>378</v>
       </c>
@@ -12612,9 +12747,10 @@
       <c r="AF12" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -12648,8 +12784,9 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="27"/>
       <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -12683,8 +12820,9 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="27"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -12718,8 +12856,9 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="27"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -12753,8 +12892,9 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="27"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -12788,8 +12928,9 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="27"/>
       <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -12823,8 +12964,9 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="27"/>
       <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -12858,11 +13000,12 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="27"/>
       <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
@@ -12876,10 +13019,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -12895,11 +13038,12 @@
     <col min="27" max="27" width="6" style="4" customWidth="1"/>
     <col min="28" max="31" width="6" style="5" customWidth="1"/>
     <col min="32" max="32" width="7.625" style="27" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12996,11 +13140,14 @@
       <c r="AF1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>379</v>
       </c>
@@ -13095,9 +13242,10 @@
       <c r="AF2" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>380</v>
       </c>
@@ -13194,9 +13342,10 @@
       <c r="AF3" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>381</v>
       </c>
@@ -13293,9 +13442,10 @@
       <c r="AF4" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>382</v>
       </c>
@@ -13392,9 +13542,10 @@
       <c r="AF5" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>383</v>
       </c>
@@ -13491,9 +13642,10 @@
       <c r="AF6" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>384</v>
       </c>
@@ -13590,9 +13742,10 @@
       <c r="AF7" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>385</v>
       </c>
@@ -13689,9 +13842,10 @@
       <c r="AF8" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>386</v>
       </c>
@@ -13788,9 +13942,10 @@
       <c r="AF9" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>387</v>
       </c>
@@ -13887,9 +14042,10 @@
       <c r="AF10" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>388</v>
       </c>
@@ -13986,9 +14142,10 @@
       <c r="AF11" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>389</v>
       </c>
@@ -14085,9 +14242,10 @@
       <c r="AF12" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -14121,8 +14279,9 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="27"/>
       <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -14156,8 +14315,9 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="27"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -14191,8 +14351,9 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="27"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -14226,8 +14387,9 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="27"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -14261,8 +14423,9 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="27"/>
       <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -14296,8 +14459,9 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="27"/>
       <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -14331,11 +14495,12 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="27"/>
       <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
@@ -14350,10 +14515,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -14369,11 +14534,12 @@
     <col min="27" max="27" width="6" style="4" customWidth="1"/>
     <col min="28" max="31" width="6" style="5" customWidth="1"/>
     <col min="32" max="32" width="7.625" style="27" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14470,11 +14636,14 @@
       <c r="AF1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>390</v>
       </c>
@@ -14569,9 +14738,10 @@
       <c r="AF2" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>391</v>
       </c>
@@ -14668,9 +14838,10 @@
       <c r="AF3" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>392</v>
       </c>
@@ -14767,9 +14938,10 @@
       <c r="AF4" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>393</v>
       </c>
@@ -14866,9 +15038,10 @@
       <c r="AF5" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>394</v>
       </c>
@@ -14965,9 +15138,10 @@
       <c r="AF6" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>395</v>
       </c>
@@ -15064,9 +15238,10 @@
       <c r="AF7" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>396</v>
       </c>
@@ -15163,9 +15338,10 @@
       <c r="AF8" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>397</v>
       </c>
@@ -15262,9 +15438,10 @@
       <c r="AF9" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>398</v>
       </c>
@@ -15361,9 +15538,10 @@
       <c r="AF10" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>399</v>
       </c>
@@ -15460,9 +15638,10 @@
       <c r="AF11" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>400</v>
       </c>
@@ -15559,9 +15738,10 @@
       <c r="AF12" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -15595,8 +15775,9 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="27"/>
       <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -15630,8 +15811,9 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="27"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -15665,8 +15847,9 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="27"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -15700,8 +15883,9 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="27"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -15735,8 +15919,9 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="27"/>
       <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -15770,8 +15955,9 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="27"/>
       <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -15805,11 +15991,12 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="27"/>
       <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
@@ -15823,10 +16010,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -15842,11 +16029,12 @@
     <col min="27" max="27" width="6" style="4" customWidth="1"/>
     <col min="28" max="31" width="6" style="5" customWidth="1"/>
     <col min="32" max="32" width="7.625" style="27" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15943,11 +16131,14 @@
       <c r="AF1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>401</v>
       </c>
@@ -16042,9 +16233,10 @@
       <c r="AF2" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>402</v>
       </c>
@@ -16141,9 +16333,10 @@
       <c r="AF3" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>403</v>
       </c>
@@ -16240,9 +16433,10 @@
       <c r="AF4" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>404</v>
       </c>
@@ -16339,9 +16533,10 @@
       <c r="AF5" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>405</v>
       </c>
@@ -16438,9 +16633,10 @@
       <c r="AF6" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>406</v>
       </c>
@@ -16537,9 +16733,10 @@
       <c r="AF7" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>407</v>
       </c>
@@ -16636,9 +16833,10 @@
       <c r="AF8" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>408</v>
       </c>
@@ -16735,9 +16933,10 @@
       <c r="AF9" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>409</v>
       </c>
@@ -16834,9 +17033,10 @@
       <c r="AF10" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>410</v>
       </c>
@@ -16933,9 +17133,10 @@
       <c r="AF11" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>411</v>
       </c>
@@ -17032,9 +17233,10 @@
       <c r="AF12" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -17068,8 +17270,9 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="27"/>
       <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -17103,8 +17306,9 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="27"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -17138,8 +17342,9 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="27"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -17173,8 +17378,9 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="27"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -17208,8 +17414,9 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="27"/>
       <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -17243,8 +17450,9 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="27"/>
       <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -17278,11 +17486,12 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="27"/>
       <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
@@ -17296,10 +17505,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView topLeftCell="P2" workbookViewId="0">
-      <selection activeCell="P5" sqref="A5:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -17315,11 +17524,12 @@
     <col min="27" max="27" width="6" style="4" customWidth="1"/>
     <col min="28" max="31" width="6" style="5" customWidth="1"/>
     <col min="32" max="32" width="7.625" style="27" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17416,11 +17626,14 @@
       <c r="AF1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>412</v>
       </c>
@@ -17517,9 +17730,10 @@
       <c r="AF2" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>413</v>
       </c>
@@ -17616,9 +17830,10 @@
       <c r="AF3" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>414</v>
       </c>
@@ -17715,36 +17930,45 @@
       <c r="AF4" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" ht="73.5" customHeight="1">
       <c r="AF5" s="26"/>
-    </row>
-    <row r="6" spans="1:33" ht="73.5" customHeight="1">
+      <c r="AG5" s="3"/>
+    </row>
+    <row r="6" spans="1:34" ht="73.5" customHeight="1">
       <c r="AF6" s="26"/>
-    </row>
-    <row r="7" spans="1:33" ht="73.5" customHeight="1">
+      <c r="AG6" s="3"/>
+    </row>
+    <row r="7" spans="1:34" ht="73.5" customHeight="1">
       <c r="AF7" s="26"/>
-    </row>
-    <row r="8" spans="1:33" ht="73.5" customHeight="1">
+      <c r="AG7" s="3"/>
+    </row>
+    <row r="8" spans="1:34" ht="73.5" customHeight="1">
       <c r="AF8" s="26"/>
-    </row>
-    <row r="9" spans="1:33" ht="73.5" customHeight="1">
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="1:34" ht="73.5" customHeight="1">
       <c r="AF9" s="26"/>
-    </row>
-    <row r="10" spans="1:33" ht="73.5" customHeight="1">
+      <c r="AG9" s="3"/>
+    </row>
+    <row r="10" spans="1:34" ht="73.5" customHeight="1">
       <c r="AF10" s="26"/>
-    </row>
-    <row r="11" spans="1:33" ht="73.5" customHeight="1">
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="1:34" ht="73.5" customHeight="1">
       <c r="AF11" s="26"/>
-    </row>
-    <row r="12" spans="1:33" ht="73.5" customHeight="1">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:34" ht="73.5" customHeight="1">
       <c r="AF12" s="26"/>
+      <c r="AG12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
@@ -17759,15 +17983,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17864,11 +18091,14 @@
       <c r="AF1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>269</v>
       </c>
@@ -17965,7 +18195,38 @@
       <c r="AF2" s="30" t="s">
         <v>512</v>
       </c>
-      <c r="AG2" s="7"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="AG3" s="3"/>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="AG4" s="3"/>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="AG5" s="3"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="AG6" s="3"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="AG7" s="3"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="AG8" s="3"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="AG9" s="3"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="AG12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -17973,7 +18234,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z2 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
@@ -18697,10 +18958,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -18716,11 +18977,12 @@
     <col min="27" max="27" width="6" style="4" customWidth="1"/>
     <col min="28" max="31" width="6" style="5" customWidth="1"/>
     <col min="32" max="32" width="7.625" style="27" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18817,11 +19079,14 @@
       <c r="AF1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>269</v>
       </c>
@@ -18916,9 +19181,10 @@
       <c r="AF2" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>270</v>
       </c>
@@ -19015,9 +19281,10 @@
       <c r="AF3" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>271</v>
       </c>
@@ -19114,9 +19381,10 @@
       <c r="AF4" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>272</v>
       </c>
@@ -19213,9 +19481,10 @@
       <c r="AF5" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>273</v>
       </c>
@@ -19312,9 +19581,10 @@
       <c r="AF6" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>274</v>
       </c>
@@ -19411,9 +19681,10 @@
       <c r="AF7" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>275</v>
       </c>
@@ -19510,9 +19781,10 @@
       <c r="AF8" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>276</v>
       </c>
@@ -19609,9 +19881,10 @@
       <c r="AF9" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>277</v>
       </c>
@@ -19708,9 +19981,10 @@
       <c r="AF10" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>278</v>
       </c>
@@ -19807,9 +20081,10 @@
       <c r="AF11" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>279</v>
       </c>
@@ -19906,9 +20181,10 @@
       <c r="AF12" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -19942,8 +20218,9 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="27"/>
       <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -19977,8 +20254,9 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="27"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -20012,8 +20290,9 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="27"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -20047,8 +20326,9 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="27"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -20082,8 +20362,9 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="27"/>
       <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -20117,8 +20398,9 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="27"/>
       <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -20152,6 +20434,7 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="27"/>
       <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -20159,7 +20442,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA12">
       <formula1>"信息窗口,警告弹出,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA13:AA1048576 Z1:Z1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA13:AA1048576 Z1:Z1048576 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1">
@@ -20174,10 +20457,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AG7" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -20193,11 +20476,12 @@
     <col min="27" max="27" width="6" style="4" customWidth="1"/>
     <col min="28" max="31" width="6" style="5" customWidth="1"/>
     <col min="32" max="32" width="7.625" style="27" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20294,11 +20578,14 @@
       <c r="AF1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>280</v>
       </c>
@@ -20393,9 +20680,10 @@
       <c r="AF2" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>281</v>
       </c>
@@ -20492,9 +20780,10 @@
       <c r="AF3" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>282</v>
       </c>
@@ -20591,9 +20880,10 @@
       <c r="AF4" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>283</v>
       </c>
@@ -20690,9 +20980,10 @@
       <c r="AF5" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>284</v>
       </c>
@@ -20789,9 +21080,10 @@
       <c r="AF6" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>285</v>
       </c>
@@ -20888,9 +21180,10 @@
       <c r="AF7" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>286</v>
       </c>
@@ -20987,9 +21280,10 @@
       <c r="AF8" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>287</v>
       </c>
@@ -21086,9 +21380,10 @@
       <c r="AF9" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>288</v>
       </c>
@@ -21185,9 +21480,10 @@
       <c r="AF10" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>289</v>
       </c>
@@ -21284,9 +21580,10 @@
       <c r="AF11" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>290</v>
       </c>
@@ -21383,9 +21680,10 @@
       <c r="AF12" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -21419,8 +21717,9 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="27"/>
       <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -21454,8 +21753,9 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="27"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -21489,8 +21789,9 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="27"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -21524,8 +21825,9 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="27"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -21559,8 +21861,9 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="27"/>
       <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -21594,8 +21897,9 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="27"/>
       <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -21629,12 +21933,13 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="27"/>
       <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z1048576 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
@@ -21648,10 +21953,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12:AF37"/>
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -21669,11 +21974,12 @@
     <col min="29" max="29" width="6" style="5" customWidth="1"/>
     <col min="30" max="31" width="6" style="23" customWidth="1"/>
     <col min="32" max="32" width="7.625" style="27" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="14" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="14" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -21770,11 +22076,14 @@
       <c r="AF1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH1" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>70</v>
       </c>
@@ -21869,9 +22178,10 @@
       <c r="AF2" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG2" s="14"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="14"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>73</v>
       </c>
@@ -21968,9 +22278,10 @@
       <c r="AF3" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG3" s="14"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="14"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>76</v>
       </c>
@@ -22067,9 +22378,10 @@
       <c r="AF4" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG4" s="14"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="14"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>78</v>
       </c>
@@ -22166,9 +22478,10 @@
       <c r="AF5" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG5" s="14"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="14"/>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>80</v>
       </c>
@@ -22265,9 +22578,10 @@
       <c r="AF6" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG6" s="14"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="14"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>82</v>
       </c>
@@ -22364,9 +22678,10 @@
       <c r="AF7" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG7" s="14"/>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="14"/>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>85</v>
       </c>
@@ -22463,9 +22778,10 @@
       <c r="AF8" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG8" s="14"/>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="14"/>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>87</v>
       </c>
@@ -22562,9 +22878,10 @@
       <c r="AF9" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG9" s="14"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="14"/>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>477</v>
       </c>
@@ -22661,9 +22978,10 @@
       <c r="AF10" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG10" s="14"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="14"/>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>478</v>
       </c>
@@ -22760,9 +23078,10 @@
       <c r="AF11" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG11" s="14"/>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="14"/>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>479</v>
       </c>
@@ -22859,9 +23178,10 @@
       <c r="AF12" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG12" s="14"/>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="14"/>
+    </row>
+    <row r="13" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>480</v>
       </c>
@@ -22956,9 +23276,10 @@
       <c r="AF13" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG13" s="14"/>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="14"/>
+    </row>
+    <row r="14" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>481</v>
       </c>
@@ -23055,9 +23376,10 @@
       <c r="AF14" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG14" s="14"/>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="14"/>
+    </row>
+    <row r="15" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>482</v>
       </c>
@@ -23154,9 +23476,10 @@
       <c r="AF15" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG15" s="14"/>
-    </row>
-    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="14"/>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>483</v>
       </c>
@@ -23253,9 +23576,10 @@
       <c r="AF16" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG16" s="14"/>
-    </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="14"/>
+    </row>
+    <row r="17" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>484</v>
       </c>
@@ -23352,9 +23676,10 @@
       <c r="AF17" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG17" s="14"/>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="14"/>
+    </row>
+    <row r="18" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>485</v>
       </c>
@@ -23451,9 +23776,10 @@
       <c r="AF18" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG18" s="14"/>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="14"/>
+    </row>
+    <row r="19" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="13" t="s">
         <v>486</v>
       </c>
@@ -23550,9 +23876,10 @@
       <c r="AF19" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG19" s="14"/>
-    </row>
-    <row r="20" spans="1:33" ht="73.5" customHeight="1">
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="14"/>
+    </row>
+    <row r="20" spans="1:34" ht="73.5" customHeight="1">
       <c r="A20" s="13" t="s">
         <v>487</v>
       </c>
@@ -23650,7 +23977,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="73.5" customHeight="1">
+    <row r="21" spans="1:34" ht="73.5" customHeight="1">
       <c r="A21" s="13" t="s">
         <v>488</v>
       </c>
@@ -23748,7 +24075,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="73.5" customHeight="1">
+    <row r="22" spans="1:34" ht="73.5" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>489</v>
       </c>
@@ -23846,7 +24173,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="73.5" customHeight="1">
+    <row r="23" spans="1:34" ht="73.5" customHeight="1">
       <c r="A23" s="13" t="s">
         <v>490</v>
       </c>
@@ -23944,7 +24271,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="73.5" customHeight="1">
+    <row r="24" spans="1:34" ht="73.5" customHeight="1">
       <c r="A24" s="13" t="s">
         <v>491</v>
       </c>
@@ -24039,7 +24366,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="73.5" customHeight="1">
+    <row r="25" spans="1:34" ht="73.5" customHeight="1">
       <c r="A25" s="13" t="s">
         <v>492</v>
       </c>
@@ -24137,7 +24464,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="73.5" customHeight="1">
+    <row r="26" spans="1:34" ht="73.5" customHeight="1">
       <c r="A26" s="13" t="s">
         <v>493</v>
       </c>
@@ -24235,7 +24562,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="73.5" customHeight="1">
+    <row r="27" spans="1:34" ht="73.5" customHeight="1">
       <c r="A27" s="13" t="s">
         <v>494</v>
       </c>
@@ -24333,7 +24660,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="73.5" customHeight="1">
+    <row r="28" spans="1:34" ht="73.5" customHeight="1">
       <c r="A28" s="13" t="s">
         <v>495</v>
       </c>
@@ -24431,7 +24758,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="73.5" customHeight="1">
+    <row r="29" spans="1:34" ht="73.5" customHeight="1">
       <c r="A29" s="13" t="s">
         <v>496</v>
       </c>
@@ -24529,7 +24856,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="73.5" customHeight="1">
+    <row r="30" spans="1:34" ht="73.5" customHeight="1">
       <c r="A30" s="13" t="s">
         <v>497</v>
       </c>
@@ -24627,7 +24954,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="73.5" customHeight="1">
+    <row r="31" spans="1:34" ht="73.5" customHeight="1">
       <c r="A31" s="13" t="s">
         <v>498</v>
       </c>
@@ -24725,7 +25052,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="73.5" customHeight="1">
+    <row r="32" spans="1:34" ht="73.5" customHeight="1">
       <c r="A32" s="13" t="s">
         <v>499</v>
       </c>
@@ -25313,7 +25640,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z1048576 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
@@ -25328,10 +25655,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -25347,11 +25674,12 @@
     <col min="27" max="27" width="6" style="4" customWidth="1"/>
     <col min="28" max="31" width="6" style="5" customWidth="1"/>
     <col min="32" max="32" width="7.625" style="27" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25448,11 +25776,14 @@
       <c r="AF1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>291</v>
       </c>
@@ -25547,9 +25878,10 @@
       <c r="AF2" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>292</v>
       </c>
@@ -25646,9 +25978,10 @@
       <c r="AF3" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>293</v>
       </c>
@@ -25745,9 +26078,10 @@
       <c r="AF4" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>294</v>
       </c>
@@ -25844,9 +26178,10 @@
       <c r="AF5" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>295</v>
       </c>
@@ -25943,9 +26278,10 @@
       <c r="AF6" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>296</v>
       </c>
@@ -26042,9 +26378,10 @@
       <c r="AF7" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>297</v>
       </c>
@@ -26141,9 +26478,10 @@
       <c r="AF8" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>298</v>
       </c>
@@ -26240,9 +26578,10 @@
       <c r="AF9" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>299</v>
       </c>
@@ -26339,9 +26678,10 @@
       <c r="AF10" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>300</v>
       </c>
@@ -26438,9 +26778,10 @@
       <c r="AF11" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>301</v>
       </c>
@@ -26537,9 +26878,10 @@
       <c r="AF12" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -26573,8 +26915,9 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="27"/>
       <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -26608,8 +26951,9 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="27"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -26643,8 +26987,9 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="27"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -26678,8 +27023,9 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="27"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -26713,8 +27059,9 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="27"/>
       <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -26748,8 +27095,9 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="27"/>
       <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -26783,11 +27131,12 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="27"/>
       <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
@@ -26802,10 +27151,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -26821,11 +27170,12 @@
     <col min="27" max="27" width="6" style="4" customWidth="1"/>
     <col min="28" max="31" width="6" style="5" customWidth="1"/>
     <col min="32" max="32" width="7.625" style="27" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26922,11 +27272,14 @@
       <c r="AF1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>302</v>
       </c>
@@ -27021,9 +27374,10 @@
       <c r="AF2" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>303</v>
       </c>
@@ -27120,9 +27474,10 @@
       <c r="AF3" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>304</v>
       </c>
@@ -27219,9 +27574,10 @@
       <c r="AF4" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>305</v>
       </c>
@@ -27318,9 +27674,10 @@
       <c r="AF5" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>306</v>
       </c>
@@ -27417,9 +27774,10 @@
       <c r="AF6" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>307</v>
       </c>
@@ -27516,9 +27874,10 @@
       <c r="AF7" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>308</v>
       </c>
@@ -27615,9 +27974,10 @@
       <c r="AF8" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>309</v>
       </c>
@@ -27714,9 +28074,10 @@
       <c r="AF9" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>310</v>
       </c>
@@ -27813,9 +28174,10 @@
       <c r="AF10" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>311</v>
       </c>
@@ -27912,9 +28274,10 @@
       <c r="AF11" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>312</v>
       </c>
@@ -28011,9 +28374,10 @@
       <c r="AF12" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -28047,8 +28411,9 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="27"/>
       <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -28082,8 +28447,9 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="27"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -28117,8 +28483,9 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="27"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -28152,8 +28519,9 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="27"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -28187,8 +28555,9 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="27"/>
       <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -28222,8 +28591,9 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="27"/>
       <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -28257,12 +28627,13 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="27"/>
       <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">
@@ -28276,10 +28647,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -28295,11 +28666,12 @@
     <col min="27" max="27" width="6" style="4" customWidth="1"/>
     <col min="28" max="31" width="6" style="5" customWidth="1"/>
     <col min="32" max="32" width="7.625" style="27" customWidth="1"/>
-    <col min="33" max="33" width="6.625" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="10.875" style="9"/>
+    <col min="33" max="33" width="13.5" style="4" customWidth="1"/>
+    <col min="34" max="34" width="6.625" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="10.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="10" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28396,11 +28768,14 @@
       <c r="AF1" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="11" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>313</v>
       </c>
@@ -28495,9 +28870,10 @@
       <c r="AF2" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG2" s="7"/>
-    </row>
-    <row r="3" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>314</v>
       </c>
@@ -28594,9 +28970,10 @@
       <c r="AF3" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>315</v>
       </c>
@@ -28693,9 +29070,10 @@
       <c r="AF4" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>316</v>
       </c>
@@ -28792,9 +29170,10 @@
       <c r="AF5" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>317</v>
       </c>
@@ -28891,9 +29270,10 @@
       <c r="AF6" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>318</v>
       </c>
@@ -28990,9 +29370,10 @@
       <c r="AF7" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>319</v>
       </c>
@@ -29089,9 +29470,10 @@
       <c r="AF8" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>320</v>
       </c>
@@ -29188,9 +29570,10 @@
       <c r="AF9" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>321</v>
       </c>
@@ -29287,9 +29670,10 @@
       <c r="AF10" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>322</v>
       </c>
@@ -29386,9 +29770,10 @@
       <c r="AF11" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>323</v>
       </c>
@@ -29485,9 +29870,10 @@
       <c r="AF12" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -29521,8 +29907,9 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="27"/>
       <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -29556,8 +29943,9 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="27"/>
       <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -29591,8 +29979,9 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="27"/>
       <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -29626,8 +30015,9 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="27"/>
       <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -29661,8 +30051,9 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="27"/>
       <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH17" s="4"/>
+    </row>
+    <row r="18" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -29696,8 +30087,9 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="27"/>
       <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="AH18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -29731,11 +30123,12 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="27"/>
       <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1:AA1048576">

--- a/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库优化.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库优化.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" firstSheet="11" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="容差比" sheetId="4" r:id="rId7"/>
     <sheet name="单层厚度" sheetId="5" r:id="rId8"/>
     <sheet name="弹性模量E11(MPa)" sheetId="6" r:id="rId9"/>
-    <sheet name="弹性模量E22（MPa）" sheetId="7" r:id="rId10"/>
-    <sheet name="泊松比v12" sheetId="8" r:id="rId11"/>
+    <sheet name="泊松比v12" sheetId="8" r:id="rId10"/>
+    <sheet name="弹性模量E22（MPa）" sheetId="7" r:id="rId11"/>
     <sheet name="剪切模量G12（MPa）" sheetId="9" r:id="rId12"/>
     <sheet name="层合板长度a(mm)" sheetId="10" r:id="rId13"/>
     <sheet name="层合板宽度b(mm)" sheetId="11" r:id="rId14"/>
@@ -2280,7 +2280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6390" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6376" uniqueCount="526">
   <si>
     <t>用例编号</t>
   </si>
@@ -4618,16 +4618,20 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>铺层库自动生成中...
- 铺层库计算完毕!
- 铺层库Excel文件创建中...
- 铺层库Excel文件创建完毕：C:\\Users\Administrator\Desktop\aro\aro2\Ply_562.xlsx
- 铺层库Excel文件创建完毕：C:\\Users\Administrator\Desktop\aro\aro2\562.xlsx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>预期值控件标识属性</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层库自动生成中... 铺层库计算完毕! 铺层库Excel文件创建中... 铺层库Excel文件创建完毕：C:\\Users\Administrator\Desktop\aro\aro2\Ply_562.xlsx 铺层库Excel文件创建完毕：C:\\Users\Administrator\Desktop\aro\aro2\562.xlsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层库自动生成中..铺层库计算完毕! 铺层库Excel文件创建中... 铺层库Excel文件创建完毕：C:\\Users\Administrator\Desktop\aro\aro2\Ply_562.xlsx 铺层库Excel文件创建完毕：C:\\Users\Administrator\Desktop\aro\aro2\562.xlsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息窗口</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5182,7 +5186,7 @@
   <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5289,7 +5293,7 @@
         <v>511</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>466</v>
@@ -5305,48 +5309,50 @@
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>30</v>
+      <c r="D2" s="31">
+        <v>50</v>
+      </c>
+      <c r="E2" s="31">
+        <v>20</v>
+      </c>
+      <c r="F2" s="32">
+        <v>5</v>
+      </c>
+      <c r="G2" s="32">
+        <v>6</v>
+      </c>
+      <c r="H2" s="32">
+        <v>2</v>
+      </c>
+      <c r="I2" s="32">
+        <v>4</v>
+      </c>
+      <c r="J2" s="32">
+        <v>0.16</v>
+      </c>
+      <c r="K2" s="32">
+        <v>165000</v>
+      </c>
+      <c r="L2" s="32">
+        <v>8000</v>
+      </c>
+      <c r="M2" s="32">
+        <v>0.35</v>
+      </c>
+      <c r="N2" s="32">
+        <v>4150</v>
+      </c>
+      <c r="O2" s="32">
+        <v>550</v>
+      </c>
+      <c r="P2" s="32">
+        <v>220</v>
+      </c>
+      <c r="Q2" s="32">
+        <v>1</v>
+      </c>
+      <c r="R2" s="32">
+        <v>452</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>30</v>
@@ -5366,14 +5372,14 @@
       <c r="X2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>32</v>
+      <c r="Y2" s="13" t="s">
+        <v>524</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>473</v>
+      <c r="AA2" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="AB2" s="7" t="s">
         <v>34</v>
@@ -5387,7 +5393,7 @@
       <c r="AE2" s="7">
         <v>2</v>
       </c>
-      <c r="AF2" s="26" t="s">
+      <c r="AF2" s="30" t="s">
         <v>512</v>
       </c>
       <c r="AG2" s="2"/>
@@ -5526,7 +5532,7 @@
   <dataConsolidate/>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z5 AG3:AG1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG1048576 Z1:Z5">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA6:AA1048576 AA1">
@@ -5665,7 +5671,7 @@
         <v>511</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>
@@ -5673,10 +5679,10 @@
     </row>
     <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
@@ -5705,10 +5711,10 @@
       <c r="K2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="L2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="6"/>
       <c r="N2" s="6" t="s">
         <v>30</v>
       </c>
@@ -5743,7 +5749,7 @@
         <v>30</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>33</v>
@@ -5771,10 +5777,10 @@
     </row>
     <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -5804,10 +5810,10 @@
         <v>30</v>
       </c>
       <c r="L3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>30</v>
@@ -5843,7 +5849,7 @@
         <v>30</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Z3" s="3" t="s">
         <v>33</v>
@@ -5871,10 +5877,10 @@
     </row>
     <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
@@ -5903,11 +5909,11 @@
       <c r="K4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="6">
         <v>-1</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>30</v>
@@ -5943,7 +5949,7 @@
         <v>30</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Z4" s="3" t="s">
         <v>33</v>
@@ -5971,10 +5977,10 @@
     </row>
     <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -6003,11 +6009,11 @@
       <c r="K5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="6">
         <v>0.123456</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>30</v>
@@ -6043,7 +6049,7 @@
         <v>30</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Z5" s="3" t="s">
         <v>33</v>
@@ -6071,10 +6077,10 @@
     </row>
     <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -6104,10 +6110,10 @@
         <v>30</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>30</v>
@@ -6143,7 +6149,7 @@
         <v>30</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>33</v>
@@ -6171,10 +6177,10 @@
     </row>
     <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -6204,10 +6210,10 @@
         <v>30</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>30</v>
@@ -6243,7 +6249,7 @@
         <v>30</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Z7" s="3" t="s">
         <v>33</v>
@@ -6271,10 +6277,10 @@
     </row>
     <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
@@ -6304,10 +6310,10 @@
         <v>30</v>
       </c>
       <c r="L8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>30</v>
@@ -6343,7 +6349,7 @@
         <v>30</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>33</v>
@@ -6371,10 +6377,10 @@
     </row>
     <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
@@ -6403,11 +6409,11 @@
       <c r="K9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="6">
         <v>1</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>30</v>
@@ -6443,7 +6449,7 @@
         <v>30</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>33</v>
@@ -6471,10 +6477,10 @@
     </row>
     <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
@@ -6504,10 +6510,10 @@
         <v>30</v>
       </c>
       <c r="L10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>30</v>
@@ -6543,7 +6549,7 @@
         <v>30</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Z10" s="3" t="s">
         <v>33</v>
@@ -6571,10 +6577,10 @@
     </row>
     <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>29</v>
@@ -6604,10 +6610,10 @@
         <v>30</v>
       </c>
       <c r="L11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>30</v>
@@ -6643,7 +6649,7 @@
         <v>30</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>33</v>
@@ -6671,10 +6677,10 @@
     </row>
     <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
@@ -6704,10 +6710,10 @@
         <v>30</v>
       </c>
       <c r="L12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>30</v>
@@ -6743,7 +6749,7 @@
         <v>30</v>
       </c>
       <c r="Y12" s="8" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>33</v>
@@ -7022,6 +7028,7 @@
       <c r="AH19" s="4"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 AG3:AG1048576">
@@ -7160,7 +7167,7 @@
         <v>511</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>
@@ -7168,10 +7175,10 @@
     </row>
     <row r="2" spans="1:34" s="11" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
@@ -7200,10 +7207,10 @@
       <c r="K2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="N2" s="6" t="s">
         <v>30</v>
       </c>
@@ -7238,7 +7245,7 @@
         <v>30</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>33</v>
@@ -7266,10 +7273,10 @@
     </row>
     <row r="3" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -7299,10 +7306,10 @@
         <v>30</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>30</v>
@@ -7338,7 +7345,7 @@
         <v>30</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="Z3" s="3" t="s">
         <v>33</v>
@@ -7366,10 +7373,10 @@
     </row>
     <row r="4" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
@@ -7398,11 +7405,11 @@
       <c r="K4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="6">
+      <c r="L4" s="6">
         <v>-1</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>30</v>
@@ -7438,7 +7445,7 @@
         <v>30</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="Z4" s="3" t="s">
         <v>33</v>
@@ -7466,10 +7473,10 @@
     </row>
     <row r="5" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -7498,11 +7505,11 @@
       <c r="K5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="6">
+      <c r="L5" s="6">
         <v>0.123456</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>30</v>
@@ -7538,7 +7545,7 @@
         <v>30</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="Z5" s="3" t="s">
         <v>33</v>
@@ -7566,10 +7573,10 @@
     </row>
     <row r="6" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -7599,10 +7606,10 @@
         <v>30</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>30</v>
@@ -7638,7 +7645,7 @@
         <v>30</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>33</v>
@@ -7666,10 +7673,10 @@
     </row>
     <row r="7" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -7699,10 +7706,10 @@
         <v>30</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>30</v>
@@ -7738,7 +7745,7 @@
         <v>30</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="Z7" s="3" t="s">
         <v>33</v>
@@ -7766,10 +7773,10 @@
     </row>
     <row r="8" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
@@ -7799,10 +7806,10 @@
         <v>30</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>30</v>
@@ -7838,7 +7845,7 @@
         <v>30</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>33</v>
@@ -7866,10 +7873,10 @@
     </row>
     <row r="9" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
@@ -7898,11 +7905,11 @@
       <c r="K9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="6">
+      <c r="L9" s="6">
         <v>1</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>30</v>
@@ -7938,7 +7945,7 @@
         <v>30</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>33</v>
@@ -7966,10 +7973,10 @@
     </row>
     <row r="10" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
@@ -7999,10 +8006,10 @@
         <v>30</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>30</v>
@@ -8038,7 +8045,7 @@
         <v>30</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="Z10" s="3" t="s">
         <v>33</v>
@@ -8066,10 +8073,10 @@
     </row>
     <row r="11" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>29</v>
@@ -8099,10 +8106,10 @@
         <v>30</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>30</v>
@@ -8138,7 +8145,7 @@
         <v>30</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>33</v>
@@ -8166,10 +8173,10 @@
     </row>
     <row r="12" spans="1:34" s="12" customFormat="1" ht="73.5" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
@@ -8199,10 +8206,10 @@
         <v>30</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>30</v>
@@ -8238,7 +8245,7 @@
         <v>30</v>
       </c>
       <c r="Y12" s="8" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>33</v>
@@ -8517,7 +8524,6 @@
       <c r="AH19" s="4"/>
     </row>
   </sheetData>
-  <dataConsolidate/>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 AG3:AG1048576">
@@ -8656,7 +8662,7 @@
         <v>511</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>
@@ -10151,7 +10157,7 @@
         <v>511</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>
@@ -11646,7 +11652,7 @@
         <v>511</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>
@@ -13141,7 +13147,7 @@
         <v>511</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>
@@ -14637,7 +14643,7 @@
         <v>511</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>
@@ -16012,8 +16018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>
@@ -16021,7 +16027,8 @@
     <col min="1" max="1" width="8.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="20" style="4" customWidth="1"/>
-    <col min="4" max="21" width="5" style="4" customWidth="1"/>
+    <col min="4" max="20" width="5" style="4" customWidth="1"/>
+    <col min="21" max="21" width="11" style="4" customWidth="1"/>
     <col min="22" max="22" width="6.75" style="4" customWidth="1"/>
     <col min="23" max="24" width="5" style="4" customWidth="1"/>
     <col min="25" max="25" width="31.625" style="4" customWidth="1"/>
@@ -16132,7 +16139,7 @@
         <v>511</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>
@@ -17507,7 +17514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AG2" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
@@ -17627,7 +17634,7 @@
         <v>511</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>
@@ -17985,8 +17992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18092,7 +18099,7 @@
         <v>511</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>466</v>
@@ -18172,7 +18179,7 @@
         <v>30</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>33</v>
@@ -18960,7 +18967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
@@ -19080,7 +19087,7 @@
         <v>511</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>466</v>
@@ -20579,7 +20586,7 @@
         <v>511</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>
@@ -22077,7 +22084,7 @@
         <v>511</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH1" s="21" t="s">
         <v>27</v>
@@ -25777,7 +25784,7 @@
         <v>511</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>
@@ -27273,7 +27280,7 @@
         <v>511</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>
@@ -28769,7 +28776,7 @@
         <v>511</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>

--- a/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库优化.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库优化.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" firstSheet="11" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -2280,7 +2280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6376" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6377" uniqueCount="527">
   <si>
     <t>用例编号</t>
   </si>
@@ -4632,6 +4632,10 @@
   <si>
     <t>信息窗口</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4783,7 +4787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4878,6 +4882,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16018,7 +16025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
@@ -17992,8 +17999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18115,8 +18122,8 @@
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="31">
-        <v>50</v>
+      <c r="D2" s="33" t="s">
+        <v>526</v>
       </c>
       <c r="E2" s="31">
         <v>20</v>
@@ -18241,7 +18248,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA1">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z2 AG3:AG1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG1048576 Z1:Z2">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2">
@@ -18967,8 +18974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="73.5" customHeight="1"/>

--- a/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库优化.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/铺层信息/自动化铺层库优化.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="16" r:id="rId1"/>
@@ -2280,7 +2280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6362" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6363" uniqueCount="529">
   <si>
     <t>用例编号</t>
   </si>
@@ -4635,6 +4635,14 @@
   </si>
   <si>
     <t>所操作控件窗口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5；5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息窗口</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4793,7 +4801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4896,6 +4904,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -17842,8 +17853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17968,8 +17979,8 @@
       <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>54</v>
+      <c r="F2" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>34</v>
@@ -17980,8 +17991,8 @@
       <c r="I2" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="J2" s="7">
-        <v>2</v>
+      <c r="J2" s="36" t="s">
+        <v>527</v>
       </c>
       <c r="K2" s="30" t="s">
         <v>511</v>
@@ -18083,15 +18094,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
-      <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L1048576 E1:E2">
       <formula1>"执行,不执行"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>"信息窗口,警告弹出,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18103,7 +18108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
